--- a/Matlab/class_analysis/second_time/各属性值假设检验结果.xlsx
+++ b/Matlab/class_analysis/second_time/各属性值假设检验结果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\GitHub\MyCoding\Matlab\class_analysis\second_time\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/channingtong/Program/MyCoding/Matlab/class_analysis/second_time/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08776A76-4B3C-44D0-9454-DAE9EA374EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9B731E-5949-F24D-A921-FB5C7881F1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11720" yWindow="3730" windowWidth="20740" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,6 +81,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>t</t>
     </r>
@@ -144,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -171,6 +172,11 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -207,7 +213,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -218,6 +264,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C17BFBE8-6155-8344-9954-BBBACF5A4527}" name="Table2" displayName="Table2" ref="A2:D10" totalsRowShown="0">
+  <autoFilter ref="A2:D10" xr:uid="{C17BFBE8-6155-8344-9954-BBBACF5A4527}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{044F6122-4739-874C-BB5B-FF41F8FA103F}" name="属性名" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{D26425A4-4AAB-354C-B3BD-1C62A343960B}" name="检验方法" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{33C252A1-0E92-F84B-8943-697BAD227A53}" name="h"/>
+    <tableColumn id="4" xr3:uid="{57534E79-B500-0F40-B419-93EB6B57A0BA}" name="p"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -540,18 +599,18 @@
   <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A2" sqref="A2:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.26953125" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -565,7 +624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -579,7 +638,7 @@
         <v>5.923454745510446E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -593,7 +652,7 @@
         <v>2.6943686032291549E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -607,7 +666,7 @@
         <v>4.1557514257269081E-74</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -621,7 +680,7 @@
         <v>2.1045752643281696E-170</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -635,7 +694,7 @@
         <v>9.0153498115612494E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -649,7 +708,7 @@
         <v>5.7054361947612493E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -663,7 +722,7 @@
         <v>3.8167891360559889E-6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -680,5 +739,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>